--- a/medicine/Psychotrope/Régie_nationale_des_tabacs_et_des_allumettes/Régie_nationale_des_tabacs_et_des_allumettes.xlsx
+++ b/medicine/Psychotrope/Régie_nationale_des_tabacs_et_des_allumettes/Régie_nationale_des_tabacs_et_des_allumettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gie_nationale_des_tabacs_et_des_allumettes</t>
+          <t>Régie_nationale_des_tabacs_et_des_allumettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Régie nationale des tabacs et des allumettes (RNTA) est une entreprise publique tunisienne possédant le monopole pour la fabrication et la commercialisation du tabac et des allumettes en Tunisie mais aussi pour les cartes à jouer et pour la poudre de chasse.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gie_nationale_des_tabacs_et_des_allumettes</t>
+          <t>Régie_nationale_des_tabacs_et_des_allumettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Site officiel
